--- a/DionGantung/evidence.xlsx
+++ b/DionGantung/evidence.xlsx
@@ -1,41 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deden\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B8161F-958D-48DC-A9EC-94BBF88401AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Info" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="A1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="A2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="A3" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="A4" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="A5" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="A6" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="A7" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="A8" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="A9" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="A10" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="A11" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="A12" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="A13" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="A14" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="A15" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="A16" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="A17" sheetId="18" r:id="rId21"/>
-    <sheet state="visible" name="A18" sheetId="19" r:id="rId22"/>
-    <sheet state="visible" name="A19" sheetId="20" r:id="rId23"/>
-    <sheet state="visible" name="A20" sheetId="21" r:id="rId24"/>
-    <sheet state="visible" name="B1" sheetId="22" r:id="rId25"/>
-    <sheet state="visible" name="B2" sheetId="23" r:id="rId26"/>
-    <sheet state="visible" name="B5" sheetId="24" r:id="rId27"/>
-    <sheet state="visible" name="B6" sheetId="25" r:id="rId28"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="A1" sheetId="2" r:id="rId2"/>
+    <sheet name="A2" sheetId="3" r:id="rId3"/>
+    <sheet name="A3" sheetId="4" r:id="rId4"/>
+    <sheet name="A4" sheetId="5" r:id="rId5"/>
+    <sheet name="A5" sheetId="6" r:id="rId6"/>
+    <sheet name="A6" sheetId="7" r:id="rId7"/>
+    <sheet name="A7" sheetId="8" r:id="rId8"/>
+    <sheet name="A8" sheetId="9" r:id="rId9"/>
+    <sheet name="A9" sheetId="10" r:id="rId10"/>
+    <sheet name="A10" sheetId="11" r:id="rId11"/>
+    <sheet name="A11" sheetId="12" r:id="rId12"/>
+    <sheet name="A12" sheetId="13" r:id="rId13"/>
+    <sheet name="A13" sheetId="14" r:id="rId14"/>
+    <sheet name="A14" sheetId="15" r:id="rId15"/>
+    <sheet name="A15" sheetId="16" r:id="rId16"/>
+    <sheet name="A16" sheetId="17" r:id="rId17"/>
+    <sheet name="A17" sheetId="18" r:id="rId18"/>
+    <sheet name="A18" sheetId="19" r:id="rId19"/>
+    <sheet name="A19" sheetId="20" r:id="rId20"/>
+    <sheet name="A20" sheetId="21" r:id="rId21"/>
+    <sheet name="B1" sheetId="22" r:id="rId22"/>
+    <sheet name="B2" sheetId="23" r:id="rId23"/>
+    <sheet name="B5" sheetId="24" r:id="rId24"/>
+    <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="35" r:id="rId26"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TeamName</t>
   </si>
@@ -139,51 +149,241 @@
     <t>2CA2563CED6171801882EFE757FDE7B9D3DBEE3CB7CD47A4250655FD699F5130</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
+    <t>ibc/C5CD8A3D5F5C19A6EEDEEE00BBCA152E4770297BBE4A8C335956D106CC4E01A1</t>
+  </si>
+  <si>
+    <t>sptflowa1</t>
+  </si>
+  <si>
+    <t>sptflowa2</t>
+  </si>
+  <si>
+    <t>sptflowa3</t>
+  </si>
+  <si>
+    <t>sptflowa4</t>
+  </si>
+  <si>
+    <t>sptflowa5</t>
+  </si>
+  <si>
+    <t>sptflowa6</t>
+  </si>
+  <si>
+    <t>ibc/BA57799F4DF7EAC3AC2B6BAD3EC77969C879D515DC799D65D3D5EA35CB6FF1C8</t>
+  </si>
+  <si>
+    <t>ibc/31FBFA294809B03B98B066E3BA93CD9A301AF862D16AF59CED4EC0CE2B3B55C1</t>
+  </si>
+  <si>
+    <t>ibc/16CC04D9E426DFB4D255AB39DD0BCA505572FA12E70853BF323E7A88083963BB</t>
+  </si>
+  <si>
+    <t>ibc/5E7BCD9329B4E35ED824ED1926C50E823A6FD6000E44C9116212CE1FF55AEEDE</t>
+  </si>
+  <si>
+    <t>ibc/0474D7FB75C6929C869AEBDD75B67F4E6BFEB828A0151A9872F7938C2247B199</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73E6916554A0ECAC26BD0143C67CB4373B94905032644D797EA2F7716C0FEB1D </t>
+  </si>
+  <si>
+    <t>7A29700D61AE8FAC7CA838AC3B332BDC3F77B475A6B08386D00C1C780A67FB8E</t>
+  </si>
+  <si>
+    <t>92ADD8D69736714306B78885ED179EAB7CE6B781CC31E879FB4AA1332429FC5B</t>
+  </si>
+  <si>
+    <t>0B223784DA3AF18F847FB8146F2D0ACD526F3F6CCEC57C9C44F7AAAD627D17F5</t>
+  </si>
+  <si>
+    <t>890D71D4C22C6807880615CF3D7B109DB37F551216FA69B8579762FEA5031F2F</t>
+  </si>
+  <si>
+    <t>DFDFAA0A6A817AC414CB7E2FCCEEA72D88E68B19780B559C02D2DAE743D3F910</t>
+  </si>
+  <si>
+    <t>C1BF0E3047FEE5148B2D380CCB4967A5161F9425B590586B27EC7C3DB6BE34D2</t>
+  </si>
+  <si>
+    <t>B43BB2768697FE8531F1763411B63C8F072C1A41618E8344447B0EFD349EBB4C</t>
+  </si>
+  <si>
+    <t>224409916E0A755BDD4A782B49FB1C49FCF56C7740EDD83D12207D736C75A8A6</t>
+  </si>
+  <si>
+    <t>700B849906AAA87EE8A377E7642E7F18648D8563D3719C466A1F3CA243574392</t>
+  </si>
+  <si>
+    <t>676192AD47C86028447BE87EBD805C80DB64950788E719598212F6B57C042436</t>
+  </si>
+  <si>
+    <t>FC604B70BA3253A09CE01B039D0221D6356C6FC1D8D1564A745E5553789AC0F8</t>
+  </si>
+  <si>
+    <t>7632F941CABC71645A1E70BA3FA1507CDB0F918E9D5ACC5C5D51AA7865A05EDE</t>
+  </si>
+  <si>
+    <t>F8A56DFDFC14CDD58917B6751FD3EB7985BC4A0B2A8D842E5D91BDE278B15C33</t>
+  </si>
+  <si>
+    <t>C2C6195F0BEDB2457D714D55D01796D8EACBA8048E6412DF42646CC06BB7A0A3</t>
+  </si>
+  <si>
+    <t>929E8D2A839F32B5A46E4FDFBCBAD87390E05206089BD5B3F7029A791FB001C9</t>
+  </si>
+  <si>
+    <t>1B437C9B16C05A22DF112EFCBE59DFFA549AFC71840FA673BC4CDE4E9C33855D</t>
+  </si>
+  <si>
+    <t>E58076478A3D9C42AC60FB310F190BACF4771121C350B9E0FE2B49A311C778B1</t>
+  </si>
+  <si>
+    <t>AFD79DD76B581A7A280D056EBA2D0720367034423F191E72368E095DCCD6FCE0</t>
+  </si>
+  <si>
+    <t>E34F16A0B19B78D47623F140BD2D160B7DA36D0F71B7FCE1FFCFB24ED468D8C0</t>
+  </si>
+  <si>
+    <t>BC07F30DF8083F6B5CBDC922525C375DC92F4F0C2684FC42FF0512DD24D06285</t>
+  </si>
+  <si>
+    <t>6A353A428F5E475B8D1FFC4660F8C757CBCFEE9A976A8C029596DBCF6CF898EE</t>
+  </si>
+  <si>
+    <t>977E09FD6EDFE016F75C99058AE210A9131FBBA857CB5909050F90ECE779F670</t>
+  </si>
+  <si>
+    <t>045B3E97386B467C9D6A08B1CBCAF41F08CDFBA2BF6E329D1F8F03CFBD24CE32</t>
+  </si>
+  <si>
+    <t>50CBDA6AA41E40FEDFDF566F096F63C41CF35E5BDC4FD64F75C33847D4D32AFF</t>
+  </si>
+  <si>
+    <t>DC4E68ABDD60B3586ED844D587AC072FA35F031DC37F8005A82BC9BF6DA03C6E</t>
+  </si>
+  <si>
+    <t>D5499F2A9F2C6A6D8DF58626D5C59071B7AF66ADFA6C601383F12A2F1C08659D</t>
+  </si>
+  <si>
+    <t>91E873DB8AA643513AA035B8EAC9F87AF3045444938DC9A402FD5F1564440636</t>
+  </si>
+  <si>
+    <t>E2722D83B827D0CD2006E50353B01FDE1CE15F7CB8653C64D4A55203257F6218</t>
+  </si>
+  <si>
+    <t>5940FD48300342178ADBCFCA8ED1C4D367B6824C37C01FA3A100AFD8038FA11C</t>
+  </si>
+  <si>
+    <t>472B08407DB490C1BB8FCB293AF4E1C5BD7A6199B6C88EFAB498E0E4FF32DE29</t>
+  </si>
+  <si>
+    <t>69062CC855D4BAAA09E757C72E78636D5529CE2F8B77C746113B306849888468</t>
+  </si>
+  <si>
+    <t>1623DEB0CF7EE1EF4BE3F64B57D8563FDB8A7FA2AC6458FDD4268F48BE787768</t>
+  </si>
+  <si>
+    <t>FABC649037D0031C869C869CF26D7C97413659B400453B4E273B98AC5370CD2C</t>
+  </si>
+  <si>
+    <t>8AF76D9AF57D1790B9BB0AEDA83AE7B27580CCAC80F6BD69176170028FDEA0FA</t>
+  </si>
+  <si>
+    <t>C0E770C16E1B0AA646325AC9C670C9F178BA51591095F337202881752F0984B3</t>
+  </si>
+  <si>
+    <t>DE866249A41B34CE6997638683246651EDB2180221D30CA545F7D5AB56528170</t>
+  </si>
+  <si>
+    <t>C1FCFA52373084081C205AA6F12269ACD5923291A247028A5AC0B79EFCC8D7CF</t>
+  </si>
+  <si>
+    <t>267B9C6105D9FD5827CC8C2AD8B5D03FDF6214D36834DFBE31B4E76BA7FAB8C0</t>
+  </si>
+  <si>
+    <t>9103C9493D2FDE93D644132F2BCC93C390D9D2712889E8C0EF3498C554B0F2C3</t>
+  </si>
+  <si>
+    <t>0B51F0D4B4207CC3E216768A13A831ED623F9B23B969739BC13E6ADD28CDEF0C</t>
+  </si>
+  <si>
+    <t>35A35A549B0E3D3108CE162A67E086A1184B3D1D0274CA3D5EA640C5E691A6F1</t>
+  </si>
+  <si>
+    <t>70A636FF0B6A43273D26E921EC6C5CBBFCC9BDB92E4EDD4BBAD881BE143FA161</t>
+  </si>
+  <si>
+    <t>E78F4C748A9FB3C0573E3F8BED8C79093C724688B3CCCE5F3917CD1C15B7163D</t>
+  </si>
+  <si>
+    <t>342E8C9FCA0987C3ADA9ECC8CD4D3F68C53E2F052EA802354A94EC394246EDF8</t>
+  </si>
+  <si>
+    <t>729E714A4A166B7658D4B3307AA969672F3DE4B6A204CA156025CAAFCE2DECE3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -191,7 +391,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -207,147 +407,65 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -511,21 +629,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -542,7 +660,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -596,26 +714,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.86"/>
-    <col customWidth="1" min="2" max="2" width="46.29"/>
-    <col customWidth="1" min="3" max="3" width="50.71"/>
-    <col customWidth="1" min="4" max="4" width="48.29"/>
-    <col customWidth="1" min="5" max="5" width="47.71"/>
-    <col customWidth="1" min="6" max="6" width="46.86"/>
-    <col customWidth="1" min="7" max="7" width="27.43"/>
-    <col customWidth="1" min="8" max="8" width="25.86"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,23 +759,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -667,20 +785,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -766,28 +884,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -795,28 +911,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -902,28 +1018,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -931,28 +1045,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1038,28 +1152,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1067,28 +1179,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1174,28 +1286,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1203,28 +1313,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1310,28 +1420,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,36 +1447,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1454,28 +1575,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1483,36 +1602,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1598,28 +1730,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1627,36 +1757,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1742,28 +1885,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1771,36 +1912,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1886,28 +2040,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1915,36 +2067,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -2030,28 +2195,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2059,36 +2222,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -2174,28 +2350,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="6" width="12.57"/>
+    <col min="1" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2203,28 +2377,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -2310,28 +2484,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2339,36 +2511,63 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -2454,28 +2653,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2483,36 +2680,63 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -2598,54 +2822,52 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="11.57"/>
+    <col min="1" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="12.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -2731,58 +2953,56 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;Cffffff&amp;A</oddHeader>
     <oddFooter>&amp;CffffffPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="11.57"/>
+    <col min="1" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:1" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="12.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -2868,58 +3088,56 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;Cffffff&amp;A</oddHeader>
     <oddFooter>&amp;CffffffPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="11.57"/>
+    <col min="1" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:1" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="12.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -3005,58 +3223,56 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;Cffffff&amp;A</oddHeader>
     <oddFooter>&amp;CffffffPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="11.57"/>
+    <col min="1" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:1" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="12.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -3142,78 +3358,56 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;Cffffff&amp;A</oddHeader>
     <oddFooter>&amp;CffffffPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674B4C92-4091-4E81-9BD8-A04E5955F5DA}">
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="6" width="12.57"/>
+    <col min="1" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:1" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -3299,29 +3493,29 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Cffffff&amp;A</oddHeader>
+    <oddFooter>&amp;CffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="6" width="12.57"/>
+    <col min="1" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3331,38 +3525,42 @@
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -3448,29 +3646,25 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="6" width="12.57"/>
+    <col min="1" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3484,185 +3678,34 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="6" width="12.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -3748,31 +3791,25 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.86"/>
-    <col customWidth="1" min="2" max="2" width="16.0"/>
-    <col customWidth="1" min="3" max="3" width="16.14"/>
-    <col customWidth="1" min="4" max="4" width="14.43"/>
-    <col customWidth="1" min="5" max="6" width="12.57"/>
+    <col min="1" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3786,34 +3823,181 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="17" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="18" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="19" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="20" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="21" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="23" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="24" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="6" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -3899,57 +4083,68 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -4035,28 +4230,26 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="6" width="12.57"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -4064,7 +4257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -4072,20 +4265,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -4171,9 +4364,141 @@
     <row r="99" ht="12.75" customHeight="1"/>
     <row r="100" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
+    <row r="21" ht="12.75" customHeight="1"/>
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>